--- a/aircraft/reports/top-airlines-over-time-yearly.xlsx
+++ b/aircraft/reports/top-airlines-over-time-yearly.xlsx
@@ -1444,7 +1444,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B64" t="n">
         <v>2025</v>
@@ -1455,12 +1455,12 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B65" t="n">
         <v>2025</v>
@@ -1476,7 +1476,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B66" t="n">
         <v>2025</v>
@@ -1492,7 +1492,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="B67" t="n">
         <v>2025</v>
@@ -1508,7 +1508,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="B68" t="n">
         <v>2025</v>
@@ -1524,7 +1524,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="B69" t="n">
         <v>2025</v>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="B70" t="n">
         <v>2025</v>
@@ -1556,7 +1556,7 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="B71" t="n">
         <v>2025</v>
